--- a/data/output/FV2504_FV2410/QUOTES/15003.xlsx
+++ b/data/output/FV2504_FV2410/QUOTES/15003.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3545" uniqueCount="336">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3566" uniqueCount="336">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1176,6 +1176,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U203" totalsRowShown="0">
+  <autoFilter ref="A1:U203"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1465,7 +1495,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10197,5 +10230,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/QUOTES/15003.xlsx
+++ b/data/output/FV2504_FV2410/QUOTES/15003.xlsx
@@ -1754,7 +1754,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1777,6 +1777,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1785,6 +1788,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2227,7 +2233,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2591,7 +2597,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2737,7 +2743,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2941,7 +2947,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -3141,7 +3147,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2"/>
@@ -3445,7 +3451,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2"/>
@@ -3749,7 +3755,7 @@
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N32" s="2"/>
@@ -3889,7 +3895,7 @@
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -4085,7 +4091,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4285,7 +4291,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4543,7 +4549,7 @@
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N48" s="2" t="s">
@@ -4851,7 +4857,7 @@
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -5043,7 +5049,7 @@
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5417,7 +5423,7 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -5721,7 +5727,7 @@
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -5859,7 +5865,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -5995,22 +6001,22 @@
       <c r="B77" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8" t="s">
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="K77" s="8" t="s">
+      <c r="K77" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="L77" s="9" t="s">
+      <c r="L77" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M77" s="5"/>
@@ -6028,27 +6034,27 @@
       <c r="A78" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D78" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8" t="s">
+      <c r="E78" s="9"/>
+      <c r="F78" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8" t="s">
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="K78" s="8"/>
-      <c r="L78" s="9" t="s">
+      <c r="K78" s="9"/>
+      <c r="L78" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M78" s="5"/>
@@ -6066,33 +6072,33 @@
       <c r="A79" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E79" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="F79" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8" t="s">
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="J79" s="8" t="s">
+      <c r="J79" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="K79" s="8" t="s">
+      <c r="K79" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="L79" s="9" t="s">
+      <c r="L79" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M79" s="5"/>
@@ -6110,31 +6116,31 @@
       <c r="A80" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G80" s="8" t="s">
+      <c r="G80" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8" t="s">
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="K80" s="8"/>
-      <c r="L80" s="9" t="s">
+      <c r="K80" s="9"/>
+      <c r="L80" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M80" s="5"/>
@@ -6152,27 +6158,27 @@
       <c r="A81" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8" t="s">
+      <c r="E81" s="9"/>
+      <c r="F81" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8" t="s">
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="K81" s="8"/>
-      <c r="L81" s="9" t="s">
+      <c r="K81" s="9"/>
+      <c r="L81" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M81" s="5"/>
@@ -6190,29 +6196,29 @@
       <c r="A82" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8" t="s">
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="K82" s="8"/>
-      <c r="L82" s="9" t="s">
+      <c r="K82" s="9"/>
+      <c r="L82" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M82" s="5"/>
@@ -6230,33 +6236,33 @@
       <c r="A83" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F83" s="8" t="s">
+      <c r="F83" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8" t="s">
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="J83" s="8" t="s">
+      <c r="J83" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="K83" s="8" t="s">
+      <c r="K83" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="L83" s="9" t="s">
+      <c r="L83" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M83" s="5"/>
@@ -6274,33 +6280,33 @@
       <c r="A84" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G84" s="8" t="s">
+      <c r="G84" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8" t="s">
+      <c r="H84" s="9"/>
+      <c r="I84" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="J84" s="8" t="s">
+      <c r="J84" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="K84" s="8"/>
-      <c r="L84" s="9" t="s">
+      <c r="K84" s="9"/>
+      <c r="L84" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M84" s="5"/>
@@ -6328,25 +6334,25 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="10" t="s">
+      <c r="L85" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="M85" s="11" t="s">
+      <c r="M85" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="N85" s="11" t="s">
+      <c r="N85" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="O85" s="11"/>
-      <c r="P85" s="11"/>
-      <c r="Q85" s="11"/>
-      <c r="R85" s="11"/>
-      <c r="S85" s="11"/>
-      <c r="T85" s="11"/>
-      <c r="U85" s="11" t="s">
+      <c r="O85" s="13"/>
+      <c r="P85" s="13"/>
+      <c r="Q85" s="13"/>
+      <c r="R85" s="13"/>
+      <c r="S85" s="13"/>
+      <c r="T85" s="13"/>
+      <c r="U85" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="V85" s="11" t="s">
+      <c r="V85" s="13" t="s">
         <v>327</v>
       </c>
     </row>
@@ -6364,29 +6370,29 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="10" t="s">
+      <c r="L86" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="M86" s="11" t="s">
+      <c r="M86" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="N86" s="11" t="s">
+      <c r="N86" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="O86" s="11" t="s">
+      <c r="O86" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="P86" s="11"/>
-      <c r="Q86" s="11" t="s">
+      <c r="P86" s="13"/>
+      <c r="Q86" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="R86" s="11"/>
-      <c r="S86" s="11"/>
-      <c r="T86" s="11"/>
-      <c r="U86" s="11" t="s">
+      <c r="R86" s="13"/>
+      <c r="S86" s="13"/>
+      <c r="T86" s="13"/>
+      <c r="U86" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="V86" s="11"/>
+      <c r="V86" s="13"/>
     </row>
     <row r="87" spans="1:22">
       <c r="A87" s="5" t="s">
@@ -6402,33 +6408,33 @@
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="10" t="s">
+      <c r="L87" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="M87" s="11" t="s">
+      <c r="M87" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="N87" s="11" t="s">
+      <c r="N87" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="O87" s="11" t="s">
+      <c r="O87" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="P87" s="11" t="s">
+      <c r="P87" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="Q87" s="11" t="s">
+      <c r="Q87" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="R87" s="11"/>
-      <c r="S87" s="11"/>
-      <c r="T87" s="11" t="s">
+      <c r="R87" s="13"/>
+      <c r="S87" s="13"/>
+      <c r="T87" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="U87" s="11" t="s">
+      <c r="U87" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="V87" s="11" t="s">
+      <c r="V87" s="13" t="s">
         <v>328</v>
       </c>
     </row>
@@ -6446,33 +6452,33 @@
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="10" t="s">
+      <c r="L88" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="M88" s="11" t="s">
+      <c r="M88" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="N88" s="11" t="s">
+      <c r="N88" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="O88" s="11" t="s">
+      <c r="O88" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="P88" s="11" t="s">
+      <c r="P88" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="Q88" s="11" t="s">
+      <c r="Q88" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="R88" s="11" t="s">
+      <c r="R88" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="S88" s="11"/>
-      <c r="T88" s="11"/>
-      <c r="U88" s="11" t="s">
+      <c r="S88" s="13"/>
+      <c r="T88" s="13"/>
+      <c r="U88" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="V88" s="11"/>
+      <c r="V88" s="13"/>
     </row>
     <row r="89" spans="1:22">
       <c r="A89" s="5" t="s">
@@ -6488,29 +6494,29 @@
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="10" t="s">
+      <c r="L89" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="M89" s="11" t="s">
+      <c r="M89" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="N89" s="11" t="s">
+      <c r="N89" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="O89" s="11" t="s">
+      <c r="O89" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="P89" s="11"/>
-      <c r="Q89" s="11" t="s">
+      <c r="P89" s="13"/>
+      <c r="Q89" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="R89" s="11"/>
-      <c r="S89" s="11"/>
-      <c r="T89" s="11"/>
-      <c r="U89" s="11" t="s">
+      <c r="R89" s="13"/>
+      <c r="S89" s="13"/>
+      <c r="T89" s="13"/>
+      <c r="U89" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="V89" s="11"/>
+      <c r="V89" s="13"/>
     </row>
     <row r="90" spans="1:22">
       <c r="A90" s="5" t="s">
@@ -6526,31 +6532,31 @@
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="10" t="s">
+      <c r="L90" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="M90" s="11" t="s">
+      <c r="M90" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="N90" s="11" t="s">
+      <c r="N90" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="O90" s="11" t="s">
+      <c r="O90" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="P90" s="11" t="s">
+      <c r="P90" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="Q90" s="11" t="s">
+      <c r="Q90" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="R90" s="11"/>
-      <c r="S90" s="11"/>
-      <c r="T90" s="11"/>
-      <c r="U90" s="11" t="s">
+      <c r="R90" s="13"/>
+      <c r="S90" s="13"/>
+      <c r="T90" s="13"/>
+      <c r="U90" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="V90" s="11"/>
+      <c r="V90" s="13"/>
     </row>
     <row r="91" spans="1:22">
       <c r="A91" s="5" t="s">
@@ -6566,33 +6572,33 @@
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="10" t="s">
+      <c r="L91" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="M91" s="11" t="s">
+      <c r="M91" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="N91" s="11" t="s">
+      <c r="N91" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="O91" s="11" t="s">
+      <c r="O91" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="P91" s="11" t="s">
+      <c r="P91" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="Q91" s="11" t="s">
+      <c r="Q91" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="R91" s="11"/>
-      <c r="S91" s="11"/>
-      <c r="T91" s="11" t="s">
+      <c r="R91" s="13"/>
+      <c r="S91" s="13"/>
+      <c r="T91" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="U91" s="11" t="s">
+      <c r="U91" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="V91" s="11" t="s">
+      <c r="V91" s="13" t="s">
         <v>329</v>
       </c>
     </row>
@@ -6610,56 +6616,56 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="10" t="s">
+      <c r="L92" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="M92" s="11" t="s">
+      <c r="M92" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="N92" s="11" t="s">
+      <c r="N92" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="O92" s="11" t="s">
+      <c r="O92" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="P92" s="11" t="s">
+      <c r="P92" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="Q92" s="11" t="s">
+      <c r="Q92" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="R92" s="11" t="s">
+      <c r="R92" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="S92" s="11"/>
-      <c r="T92" s="11" t="s">
+      <c r="S92" s="13"/>
+      <c r="T92" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="U92" s="11" t="s">
+      <c r="U92" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="V92" s="11"/>
+      <c r="V92" s="13"/>
     </row>
     <row r="93" spans="1:22">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E93" s="5"/>
+      <c r="E93" s="2"/>
       <c r="F93" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
       <c r="J93" s="6" t="s">
         <v>237</v>
       </c>
@@ -6667,22 +6673,22 @@
       <c r="L93" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="M93" s="5" t="s">
+      <c r="M93" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N93" s="5" t="s">
+      <c r="N93" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O93" s="5" t="s">
+      <c r="O93" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P93" s="5"/>
+      <c r="P93" s="2"/>
       <c r="Q93" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="5"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
       <c r="U93" s="6" t="s">
         <v>313</v>
       </c>
@@ -6869,24 +6875,24 @@
       <c r="B97" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8" t="s">
+      <c r="E97" s="9"/>
+      <c r="F97" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8" t="s">
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="K97" s="8"/>
-      <c r="L97" s="9" t="s">
+      <c r="K97" s="9"/>
+      <c r="L97" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M97" s="5"/>
@@ -6904,29 +6910,29 @@
       <c r="A98" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D98" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E98" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F98" s="8" t="s">
+      <c r="F98" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8" t="s">
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="K98" s="8"/>
-      <c r="L98" s="9" t="s">
+      <c r="K98" s="9"/>
+      <c r="L98" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M98" s="5"/>
@@ -6944,31 +6950,31 @@
       <c r="A99" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D99" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E99" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F99" s="8" t="s">
+      <c r="F99" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8" t="s">
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J99" s="8" t="s">
+      <c r="J99" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="K99" s="8"/>
-      <c r="L99" s="9" t="s">
+      <c r="K99" s="9"/>
+      <c r="L99" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M99" s="5"/>
@@ -6986,33 +6992,33 @@
       <c r="A100" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E100" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F100" s="8" t="s">
+      <c r="F100" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G100" s="8" t="s">
+      <c r="G100" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8" t="s">
+      <c r="H100" s="9"/>
+      <c r="I100" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="J100" s="8" t="s">
+      <c r="J100" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="K100" s="8"/>
-      <c r="L100" s="9" t="s">
+      <c r="K100" s="9"/>
+      <c r="L100" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M100" s="5"/>
@@ -7033,20 +7039,20 @@
       <c r="B101" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="8" t="s">
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="K101" s="8"/>
-      <c r="L101" s="9" t="s">
+      <c r="K101" s="9"/>
+      <c r="L101" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M101" s="5"/>
@@ -7064,27 +7070,27 @@
       <c r="A102" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D102" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8" t="s">
+      <c r="E102" s="9"/>
+      <c r="F102" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
-      <c r="J102" s="8" t="s">
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="K102" s="8"/>
-      <c r="L102" s="9" t="s">
+      <c r="K102" s="9"/>
+      <c r="L102" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M102" s="5"/>
@@ -7102,33 +7108,33 @@
       <c r="A103" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E103" s="8" t="s">
+      <c r="E103" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F103" s="8" t="s">
+      <c r="F103" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G103" s="8" t="s">
+      <c r="G103" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8" t="s">
+      <c r="H103" s="9"/>
+      <c r="I103" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="J103" s="8" t="s">
+      <c r="J103" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="K103" s="8"/>
-      <c r="L103" s="9" t="s">
+      <c r="K103" s="9"/>
+      <c r="L103" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M103" s="5"/>
@@ -7146,33 +7152,33 @@
       <c r="A104" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D104" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E104" s="8" t="s">
+      <c r="E104" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F104" s="8" t="s">
+      <c r="F104" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8" t="s">
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J104" s="8" t="s">
+      <c r="J104" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="K104" s="8" t="s">
+      <c r="K104" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="L104" s="9" t="s">
+      <c r="L104" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M104" s="5"/>
@@ -7200,29 +7206,29 @@
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
-      <c r="L105" s="10" t="s">
+      <c r="L105" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="M105" s="11" t="s">
+      <c r="M105" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="N105" s="11" t="s">
+      <c r="N105" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="O105" s="11" t="s">
+      <c r="O105" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="P105" s="11"/>
-      <c r="Q105" s="11" t="s">
+      <c r="P105" s="13"/>
+      <c r="Q105" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="R105" s="11"/>
-      <c r="S105" s="11"/>
-      <c r="T105" s="11"/>
-      <c r="U105" s="11" t="s">
+      <c r="R105" s="13"/>
+      <c r="S105" s="13"/>
+      <c r="T105" s="13"/>
+      <c r="U105" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="V105" s="11" t="s">
+      <c r="V105" s="13" t="s">
         <v>331</v>
       </c>
     </row>
@@ -7240,31 +7246,31 @@
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
-      <c r="L106" s="10" t="s">
+      <c r="L106" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="M106" s="11" t="s">
+      <c r="M106" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="N106" s="11" t="s">
+      <c r="N106" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="O106" s="11" t="s">
+      <c r="O106" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="P106" s="11" t="s">
+      <c r="P106" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="Q106" s="11" t="s">
+      <c r="Q106" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="R106" s="11"/>
-      <c r="S106" s="11"/>
-      <c r="T106" s="11"/>
-      <c r="U106" s="11" t="s">
+      <c r="R106" s="13"/>
+      <c r="S106" s="13"/>
+      <c r="T106" s="13"/>
+      <c r="U106" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="V106" s="11"/>
+      <c r="V106" s="13"/>
     </row>
     <row r="107" spans="1:22">
       <c r="A107" s="5" t="s">
@@ -7280,33 +7286,33 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
-      <c r="L107" s="10" t="s">
+      <c r="L107" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="M107" s="11" t="s">
+      <c r="M107" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="N107" s="11" t="s">
+      <c r="N107" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="O107" s="11" t="s">
+      <c r="O107" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="P107" s="11" t="s">
+      <c r="P107" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="Q107" s="11" t="s">
+      <c r="Q107" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="R107" s="11"/>
-      <c r="S107" s="11"/>
-      <c r="T107" s="11" t="s">
+      <c r="R107" s="13"/>
+      <c r="S107" s="13"/>
+      <c r="T107" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="U107" s="11" t="s">
+      <c r="U107" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="V107" s="11"/>
+      <c r="V107" s="13"/>
     </row>
     <row r="108" spans="1:22">
       <c r="A108" s="5" t="s">
@@ -7322,52 +7328,52 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
-      <c r="L108" s="10" t="s">
+      <c r="L108" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="M108" s="11" t="s">
+      <c r="M108" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="N108" s="11" t="s">
+      <c r="N108" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="O108" s="11" t="s">
+      <c r="O108" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="P108" s="11" t="s">
+      <c r="P108" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="Q108" s="11" t="s">
+      <c r="Q108" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="R108" s="11" t="s">
+      <c r="R108" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="S108" s="11"/>
-      <c r="T108" s="11" t="s">
+      <c r="S108" s="13"/>
+      <c r="T108" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="U108" s="11" t="s">
+      <c r="U108" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="V108" s="11"/>
+      <c r="V108" s="13"/>
     </row>
     <row r="109" spans="1:22">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
       <c r="J109" s="6" t="s">
         <v>237</v>
       </c>
@@ -7375,18 +7381,18 @@
       <c r="L109" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="M109" s="5" t="s">
+      <c r="M109" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N109" s="5" t="s">
+      <c r="N109" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O109" s="5"/>
-      <c r="P109" s="5"/>
-      <c r="Q109" s="5"/>
-      <c r="R109" s="5"/>
-      <c r="S109" s="5"/>
-      <c r="T109" s="5"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="2"/>
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+      <c r="T109" s="2"/>
       <c r="U109" s="6" t="s">
         <v>315</v>
       </c>
@@ -7569,22 +7575,22 @@
       <c r="B113" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="C113" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8"/>
-      <c r="J113" s="8" t="s">
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="K113" s="8" t="s">
+      <c r="K113" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="L113" s="9" t="s">
+      <c r="L113" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M113" s="5"/>
@@ -7602,27 +7608,27 @@
       <c r="A114" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C114" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D114" s="8" t="s">
+      <c r="D114" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8" t="s">
+      <c r="E114" s="9"/>
+      <c r="F114" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="8"/>
-      <c r="J114" s="8" t="s">
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="K114" s="8"/>
-      <c r="L114" s="9" t="s">
+      <c r="K114" s="9"/>
+      <c r="L114" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M114" s="5"/>
@@ -7640,33 +7646,33 @@
       <c r="A115" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C115" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D115" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E115" s="8" t="s">
+      <c r="E115" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F115" s="8" t="s">
+      <c r="F115" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="8" t="s">
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="J115" s="8" t="s">
+      <c r="J115" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="K115" s="8" t="s">
+      <c r="K115" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="L115" s="9" t="s">
+      <c r="L115" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M115" s="5"/>
@@ -7684,31 +7690,31 @@
       <c r="A116" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C116" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D116" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E116" s="8" t="s">
+      <c r="E116" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F116" s="8" t="s">
+      <c r="F116" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G116" s="8" t="s">
+      <c r="G116" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="H116" s="8"/>
-      <c r="I116" s="8"/>
-      <c r="J116" s="8" t="s">
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="K116" s="8"/>
-      <c r="L116" s="9" t="s">
+      <c r="K116" s="9"/>
+      <c r="L116" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M116" s="5"/>
@@ -7726,27 +7732,27 @@
       <c r="A117" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="C117" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D117" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8" t="s">
+      <c r="E117" s="9"/>
+      <c r="F117" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G117" s="8"/>
-      <c r="H117" s="8"/>
-      <c r="I117" s="8"/>
-      <c r="J117" s="8" t="s">
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="K117" s="8"/>
-      <c r="L117" s="9" t="s">
+      <c r="K117" s="9"/>
+      <c r="L117" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M117" s="5"/>
@@ -7764,29 +7770,29 @@
       <c r="A118" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C118" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D118" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E118" s="8" t="s">
+      <c r="E118" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F118" s="8" t="s">
+      <c r="F118" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="8"/>
-      <c r="J118" s="8" t="s">
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="K118" s="8"/>
-      <c r="L118" s="9" t="s">
+      <c r="K118" s="9"/>
+      <c r="L118" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M118" s="5"/>
@@ -7804,33 +7810,33 @@
       <c r="A119" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="C119" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="D119" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E119" s="8" t="s">
+      <c r="E119" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F119" s="8" t="s">
+      <c r="F119" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G119" s="8"/>
-      <c r="H119" s="8"/>
-      <c r="I119" s="8" t="s">
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="J119" s="8" t="s">
+      <c r="J119" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="K119" s="8" t="s">
+      <c r="K119" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="L119" s="9" t="s">
+      <c r="L119" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M119" s="5"/>
@@ -7848,33 +7854,33 @@
       <c r="A120" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="C120" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D120" s="8" t="s">
+      <c r="D120" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E120" s="8" t="s">
+      <c r="E120" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F120" s="8" t="s">
+      <c r="F120" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G120" s="8" t="s">
+      <c r="G120" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="H120" s="8"/>
-      <c r="I120" s="8" t="s">
+      <c r="H120" s="9"/>
+      <c r="I120" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="J120" s="8" t="s">
+      <c r="J120" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="K120" s="8"/>
-      <c r="L120" s="9" t="s">
+      <c r="K120" s="9"/>
+      <c r="L120" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M120" s="5"/>
@@ -7902,35 +7908,35 @@
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
-      <c r="L121" s="10" t="s">
+      <c r="L121" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="M121" s="11" t="s">
+      <c r="M121" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="N121" s="11" t="s">
+      <c r="N121" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O121" s="11" t="s">
+      <c r="O121" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P121" s="11" t="s">
+      <c r="P121" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="Q121" s="11" t="s">
+      <c r="Q121" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="R121" s="11" t="s">
+      <c r="R121" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="S121" s="11"/>
-      <c r="T121" s="11" t="s">
+      <c r="S121" s="13"/>
+      <c r="T121" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="U121" s="11" t="s">
+      <c r="U121" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="V121" s="11"/>
+      <c r="V121" s="13"/>
     </row>
     <row r="122" spans="1:22">
       <c r="A122" s="5" t="s">
@@ -7946,33 +7952,33 @@
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
-      <c r="L122" s="10" t="s">
+      <c r="L122" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="M122" s="11" t="s">
+      <c r="M122" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="N122" s="11" t="s">
+      <c r="N122" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O122" s="11" t="s">
+      <c r="O122" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P122" s="11" t="s">
+      <c r="P122" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="Q122" s="11"/>
-      <c r="R122" s="11" t="s">
+      <c r="Q122" s="13"/>
+      <c r="R122" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="S122" s="11"/>
-      <c r="T122" s="11" t="s">
+      <c r="S122" s="13"/>
+      <c r="T122" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="U122" s="11" t="s">
+      <c r="U122" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="V122" s="11"/>
+      <c r="V122" s="13"/>
     </row>
     <row r="123" spans="1:22">
       <c r="A123" s="5" t="s">
@@ -7988,33 +7994,33 @@
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
-      <c r="L123" s="10" t="s">
+      <c r="L123" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="M123" s="11" t="s">
+      <c r="M123" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="N123" s="11" t="s">
+      <c r="N123" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O123" s="11" t="s">
+      <c r="O123" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P123" s="11" t="s">
+      <c r="P123" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="Q123" s="11"/>
-      <c r="R123" s="11" t="s">
+      <c r="Q123" s="13"/>
+      <c r="R123" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="S123" s="11"/>
-      <c r="T123" s="11" t="s">
+      <c r="S123" s="13"/>
+      <c r="T123" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="U123" s="11" t="s">
+      <c r="U123" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="V123" s="11" t="s">
+      <c r="V123" s="13" t="s">
         <v>333</v>
       </c>
     </row>
@@ -8032,33 +8038,33 @@
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
-      <c r="L124" s="10" t="s">
+      <c r="L124" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="M124" s="11" t="s">
+      <c r="M124" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="N124" s="11" t="s">
+      <c r="N124" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O124" s="11" t="s">
+      <c r="O124" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P124" s="11" t="s">
+      <c r="P124" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="Q124" s="11" t="s">
+      <c r="Q124" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="R124" s="11"/>
-      <c r="S124" s="11"/>
-      <c r="T124" s="11" t="s">
+      <c r="R124" s="13"/>
+      <c r="S124" s="13"/>
+      <c r="T124" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="U124" s="11" t="s">
+      <c r="U124" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="V124" s="11" t="s">
+      <c r="V124" s="13" t="s">
         <v>328</v>
       </c>
     </row>
@@ -8076,35 +8082,35 @@
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
-      <c r="L125" s="10" t="s">
+      <c r="L125" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="M125" s="11" t="s">
+      <c r="M125" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="N125" s="11" t="s">
+      <c r="N125" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O125" s="11" t="s">
+      <c r="O125" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P125" s="11" t="s">
+      <c r="P125" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="Q125" s="11" t="s">
+      <c r="Q125" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="R125" s="11" t="s">
+      <c r="R125" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="S125" s="11"/>
-      <c r="T125" s="11" t="s">
+      <c r="S125" s="13"/>
+      <c r="T125" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="U125" s="11" t="s">
+      <c r="U125" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="V125" s="11"/>
+      <c r="V125" s="13"/>
     </row>
     <row r="126" spans="1:22">
       <c r="A126" s="5" t="s">
@@ -8120,33 +8126,33 @@
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
-      <c r="L126" s="10" t="s">
+      <c r="L126" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="M126" s="11" t="s">
+      <c r="M126" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="N126" s="11" t="s">
+      <c r="N126" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O126" s="11" t="s">
+      <c r="O126" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P126" s="11" t="s">
+      <c r="P126" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="Q126" s="11"/>
-      <c r="R126" s="11" t="s">
+      <c r="Q126" s="13"/>
+      <c r="R126" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="S126" s="11"/>
-      <c r="T126" s="11" t="s">
+      <c r="S126" s="13"/>
+      <c r="T126" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="U126" s="11" t="s">
+      <c r="U126" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="V126" s="11" t="s">
+      <c r="V126" s="13" t="s">
         <v>334</v>
       </c>
     </row>
@@ -8164,25 +8170,25 @@
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
-      <c r="L127" s="10" t="s">
+      <c r="L127" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="M127" s="11" t="s">
+      <c r="M127" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="N127" s="11" t="s">
+      <c r="N127" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="O127" s="11"/>
-      <c r="P127" s="11"/>
-      <c r="Q127" s="11"/>
-      <c r="R127" s="11"/>
-      <c r="S127" s="11"/>
-      <c r="T127" s="11"/>
-      <c r="U127" s="11" t="s">
+      <c r="O127" s="13"/>
+      <c r="P127" s="13"/>
+      <c r="Q127" s="13"/>
+      <c r="R127" s="13"/>
+      <c r="S127" s="13"/>
+      <c r="T127" s="13"/>
+      <c r="U127" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="V127" s="11" t="s">
+      <c r="V127" s="13" t="s">
         <v>335</v>
       </c>
     </row>
@@ -8200,29 +8206,29 @@
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
       <c r="K128" s="5"/>
-      <c r="L128" s="10" t="s">
+      <c r="L128" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="M128" s="11" t="s">
+      <c r="M128" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="N128" s="11" t="s">
+      <c r="N128" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="O128" s="11" t="s">
+      <c r="O128" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="P128" s="11"/>
-      <c r="Q128" s="11" t="s">
+      <c r="P128" s="13"/>
+      <c r="Q128" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="R128" s="11"/>
-      <c r="S128" s="11"/>
-      <c r="T128" s="11"/>
-      <c r="U128" s="11" t="s">
+      <c r="R128" s="13"/>
+      <c r="S128" s="13"/>
+      <c r="T128" s="13"/>
+      <c r="U128" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="V128" s="11"/>
+      <c r="V128" s="13"/>
     </row>
     <row r="129" spans="1:22">
       <c r="A129" s="5" t="s">
@@ -8238,33 +8244,33 @@
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
       <c r="K129" s="5"/>
-      <c r="L129" s="10" t="s">
+      <c r="L129" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="M129" s="11" t="s">
+      <c r="M129" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="N129" s="11" t="s">
+      <c r="N129" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="O129" s="11" t="s">
+      <c r="O129" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="P129" s="11" t="s">
+      <c r="P129" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="Q129" s="11" t="s">
+      <c r="Q129" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="R129" s="11"/>
-      <c r="S129" s="11"/>
-      <c r="T129" s="11" t="s">
+      <c r="R129" s="13"/>
+      <c r="S129" s="13"/>
+      <c r="T129" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="U129" s="11" t="s">
+      <c r="U129" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="V129" s="11" t="s">
+      <c r="V129" s="13" t="s">
         <v>328</v>
       </c>
     </row>
@@ -8282,33 +8288,33 @@
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
       <c r="K130" s="5"/>
-      <c r="L130" s="10" t="s">
+      <c r="L130" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="M130" s="11" t="s">
+      <c r="M130" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="N130" s="11" t="s">
+      <c r="N130" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="O130" s="11" t="s">
+      <c r="O130" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="P130" s="11" t="s">
+      <c r="P130" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="Q130" s="11" t="s">
+      <c r="Q130" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="R130" s="11" t="s">
+      <c r="R130" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="S130" s="11"/>
-      <c r="T130" s="11"/>
-      <c r="U130" s="11" t="s">
+      <c r="S130" s="13"/>
+      <c r="T130" s="13"/>
+      <c r="U130" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="V130" s="11"/>
+      <c r="V130" s="13"/>
     </row>
     <row r="131" spans="1:22">
       <c r="A131" s="5" t="s">
@@ -8324,29 +8330,29 @@
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
       <c r="K131" s="5"/>
-      <c r="L131" s="10" t="s">
+      <c r="L131" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="M131" s="11" t="s">
+      <c r="M131" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="N131" s="11" t="s">
+      <c r="N131" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="O131" s="11" t="s">
+      <c r="O131" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="P131" s="11"/>
-      <c r="Q131" s="11" t="s">
+      <c r="P131" s="13"/>
+      <c r="Q131" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="R131" s="11"/>
-      <c r="S131" s="11"/>
-      <c r="T131" s="11"/>
-      <c r="U131" s="11" t="s">
+      <c r="R131" s="13"/>
+      <c r="S131" s="13"/>
+      <c r="T131" s="13"/>
+      <c r="U131" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="V131" s="11"/>
+      <c r="V131" s="13"/>
     </row>
     <row r="132" spans="1:22">
       <c r="A132" s="5" t="s">
@@ -8362,31 +8368,31 @@
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
       <c r="K132" s="5"/>
-      <c r="L132" s="10" t="s">
+      <c r="L132" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="M132" s="11" t="s">
+      <c r="M132" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="N132" s="11" t="s">
+      <c r="N132" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="O132" s="11" t="s">
+      <c r="O132" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="P132" s="11" t="s">
+      <c r="P132" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="Q132" s="11" t="s">
+      <c r="Q132" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="R132" s="11"/>
-      <c r="S132" s="11"/>
-      <c r="T132" s="11"/>
-      <c r="U132" s="11" t="s">
+      <c r="R132" s="13"/>
+      <c r="S132" s="13"/>
+      <c r="T132" s="13"/>
+      <c r="U132" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="V132" s="11"/>
+      <c r="V132" s="13"/>
     </row>
     <row r="133" spans="1:22">
       <c r="A133" s="5" t="s">
@@ -8402,33 +8408,33 @@
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
-      <c r="L133" s="10" t="s">
+      <c r="L133" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="M133" s="11" t="s">
+      <c r="M133" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="N133" s="11" t="s">
+      <c r="N133" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="O133" s="11" t="s">
+      <c r="O133" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="P133" s="11" t="s">
+      <c r="P133" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="Q133" s="11" t="s">
+      <c r="Q133" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="R133" s="11"/>
-      <c r="S133" s="11"/>
-      <c r="T133" s="11" t="s">
+      <c r="R133" s="13"/>
+      <c r="S133" s="13"/>
+      <c r="T133" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="U133" s="11" t="s">
+      <c r="U133" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="V133" s="11" t="s">
+      <c r="V133" s="13" t="s">
         <v>336</v>
       </c>
     </row>
@@ -8446,56 +8452,56 @@
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
       <c r="K134" s="5"/>
-      <c r="L134" s="10" t="s">
+      <c r="L134" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="M134" s="11" t="s">
+      <c r="M134" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="N134" s="11" t="s">
+      <c r="N134" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="O134" s="11" t="s">
+      <c r="O134" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="P134" s="11" t="s">
+      <c r="P134" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="Q134" s="11" t="s">
+      <c r="Q134" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="R134" s="11" t="s">
+      <c r="R134" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="S134" s="11"/>
-      <c r="T134" s="11" t="s">
+      <c r="S134" s="13"/>
+      <c r="T134" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="U134" s="11" t="s">
+      <c r="U134" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="V134" s="11"/>
+      <c r="V134" s="13"/>
     </row>
     <row r="135" spans="1:22">
-      <c r="A135" s="5" t="s">
+      <c r="A135" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C135" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D135" s="5" t="s">
+      <c r="D135" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E135" s="5"/>
+      <c r="E135" s="2"/>
       <c r="F135" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="G135" s="5"/>
-      <c r="H135" s="5"/>
-      <c r="I135" s="5"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
       <c r="J135" s="6" t="s">
         <v>237</v>
       </c>
@@ -8503,22 +8509,22 @@
       <c r="L135" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="M135" s="5" t="s">
+      <c r="M135" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N135" s="5" t="s">
+      <c r="N135" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O135" s="5" t="s">
+      <c r="O135" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P135" s="5"/>
+      <c r="P135" s="2"/>
       <c r="Q135" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="R135" s="5"/>
-      <c r="S135" s="5"/>
-      <c r="T135" s="5"/>
+      <c r="R135" s="2"/>
+      <c r="S135" s="2"/>
+      <c r="T135" s="2"/>
       <c r="U135" s="6" t="s">
         <v>324</v>
       </c>
@@ -8705,24 +8711,24 @@
       <c r="B139" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C139" s="8" t="s">
+      <c r="C139" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D139" s="8" t="s">
+      <c r="D139" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8" t="s">
+      <c r="E139" s="9"/>
+      <c r="F139" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G139" s="8"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="8"/>
-      <c r="J139" s="8" t="s">
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="K139" s="8"/>
-      <c r="L139" s="9" t="s">
+      <c r="K139" s="9"/>
+      <c r="L139" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M139" s="5"/>
@@ -8740,29 +8746,29 @@
       <c r="A140" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="B140" s="8" t="s">
+      <c r="B140" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="C140" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D140" s="8" t="s">
+      <c r="D140" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E140" s="8" t="s">
+      <c r="E140" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F140" s="8" t="s">
+      <c r="F140" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8" t="s">
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="K140" s="8"/>
-      <c r="L140" s="9" t="s">
+      <c r="K140" s="9"/>
+      <c r="L140" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M140" s="5"/>
@@ -8780,31 +8786,31 @@
       <c r="A141" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="B141" s="8" t="s">
+      <c r="B141" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C141" s="8" t="s">
+      <c r="C141" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D141" s="8" t="s">
+      <c r="D141" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E141" s="8" t="s">
+      <c r="E141" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F141" s="8" t="s">
+      <c r="F141" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G141" s="8"/>
-      <c r="H141" s="8"/>
-      <c r="I141" s="8" t="s">
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J141" s="8" t="s">
+      <c r="J141" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="K141" s="8"/>
-      <c r="L141" s="9" t="s">
+      <c r="K141" s="9"/>
+      <c r="L141" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M141" s="5"/>
@@ -8822,33 +8828,33 @@
       <c r="A142" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="B142" s="8" t="s">
+      <c r="B142" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C142" s="8" t="s">
+      <c r="C142" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D142" s="8" t="s">
+      <c r="D142" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E142" s="8" t="s">
+      <c r="E142" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F142" s="8" t="s">
+      <c r="F142" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G142" s="8" t="s">
+      <c r="G142" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="H142" s="8"/>
-      <c r="I142" s="8" t="s">
+      <c r="H142" s="9"/>
+      <c r="I142" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="J142" s="8" t="s">
+      <c r="J142" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="K142" s="8"/>
-      <c r="L142" s="9" t="s">
+      <c r="K142" s="9"/>
+      <c r="L142" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M142" s="5"/>
@@ -8869,20 +8875,20 @@
       <c r="B143" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C143" s="8" t="s">
+      <c r="C143" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8" t="s">
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="K143" s="8"/>
-      <c r="L143" s="9" t="s">
+      <c r="K143" s="9"/>
+      <c r="L143" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M143" s="5"/>
@@ -8900,27 +8906,27 @@
       <c r="A144" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="B144" s="8" t="s">
+      <c r="B144" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C144" s="8" t="s">
+      <c r="C144" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D144" s="8" t="s">
+      <c r="D144" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8" t="s">
+      <c r="E144" s="9"/>
+      <c r="F144" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G144" s="8"/>
-      <c r="H144" s="8"/>
-      <c r="I144" s="8"/>
-      <c r="J144" s="8" t="s">
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="K144" s="8"/>
-      <c r="L144" s="9" t="s">
+      <c r="K144" s="9"/>
+      <c r="L144" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M144" s="5"/>
@@ -8938,33 +8944,33 @@
       <c r="A145" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="B145" s="8" t="s">
+      <c r="B145" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C145" s="8" t="s">
+      <c r="C145" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D145" s="8" t="s">
+      <c r="D145" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E145" s="8" t="s">
+      <c r="E145" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F145" s="8" t="s">
+      <c r="F145" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G145" s="8" t="s">
+      <c r="G145" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H145" s="8"/>
-      <c r="I145" s="8" t="s">
+      <c r="H145" s="9"/>
+      <c r="I145" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="J145" s="8" t="s">
+      <c r="J145" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="K145" s="8"/>
-      <c r="L145" s="9" t="s">
+      <c r="K145" s="9"/>
+      <c r="L145" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M145" s="5"/>
@@ -8982,33 +8988,33 @@
       <c r="A146" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="B146" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C146" s="8" t="s">
+      <c r="C146" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D146" s="8" t="s">
+      <c r="D146" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E146" s="8" t="s">
+      <c r="E146" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F146" s="8" t="s">
+      <c r="F146" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G146" s="8"/>
-      <c r="H146" s="8"/>
-      <c r="I146" s="8" t="s">
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
+      <c r="I146" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J146" s="8" t="s">
+      <c r="J146" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="K146" s="8" t="s">
+      <c r="K146" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="L146" s="9" t="s">
+      <c r="L146" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M146" s="5"/>
@@ -9023,21 +9029,21 @@
       <c r="V146" s="5"/>
     </row>
     <row r="147" spans="1:22">
-      <c r="A147" s="5" t="s">
+      <c r="A147" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B147" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="C147" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="5"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
       <c r="J147" s="6" t="s">
         <v>237</v>
       </c>
@@ -9045,18 +9051,18 @@
       <c r="L147" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="M147" s="5" t="s">
+      <c r="M147" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N147" s="5" t="s">
+      <c r="N147" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O147" s="5"/>
-      <c r="P147" s="5"/>
-      <c r="Q147" s="5"/>
-      <c r="R147" s="5"/>
-      <c r="S147" s="5"/>
-      <c r="T147" s="5"/>
+      <c r="O147" s="2"/>
+      <c r="P147" s="2"/>
+      <c r="Q147" s="2"/>
+      <c r="R147" s="2"/>
+      <c r="S147" s="2"/>
+      <c r="T147" s="2"/>
       <c r="U147" s="6" t="s">
         <v>325</v>
       </c>
@@ -9239,22 +9245,22 @@
       <c r="B151" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C151" s="8" t="s">
+      <c r="C151" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D151" s="8"/>
-      <c r="E151" s="8"/>
-      <c r="F151" s="8"/>
-      <c r="G151" s="8"/>
-      <c r="H151" s="8"/>
-      <c r="I151" s="8"/>
-      <c r="J151" s="8" t="s">
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="9"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="K151" s="8" t="s">
+      <c r="K151" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="L151" s="9" t="s">
+      <c r="L151" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M151" s="5"/>
@@ -9272,27 +9278,27 @@
       <c r="A152" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="B152" s="8" t="s">
+      <c r="B152" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C152" s="8" t="s">
+      <c r="C152" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D152" s="8" t="s">
+      <c r="D152" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E152" s="8"/>
-      <c r="F152" s="8" t="s">
+      <c r="E152" s="9"/>
+      <c r="F152" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G152" s="8"/>
-      <c r="H152" s="8"/>
-      <c r="I152" s="8"/>
-      <c r="J152" s="8" t="s">
+      <c r="G152" s="9"/>
+      <c r="H152" s="9"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="K152" s="8"/>
-      <c r="L152" s="9" t="s">
+      <c r="K152" s="9"/>
+      <c r="L152" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M152" s="5"/>
@@ -9310,33 +9316,33 @@
       <c r="A153" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="B153" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C153" s="8" t="s">
+      <c r="C153" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D153" s="8" t="s">
+      <c r="D153" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E153" s="8" t="s">
+      <c r="E153" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F153" s="8" t="s">
+      <c r="F153" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G153" s="8"/>
-      <c r="H153" s="8"/>
-      <c r="I153" s="8" t="s">
+      <c r="G153" s="9"/>
+      <c r="H153" s="9"/>
+      <c r="I153" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="J153" s="8" t="s">
+      <c r="J153" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="K153" s="8" t="s">
+      <c r="K153" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="L153" s="9" t="s">
+      <c r="L153" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M153" s="5"/>
@@ -9354,31 +9360,31 @@
       <c r="A154" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="B154" s="8" t="s">
+      <c r="B154" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C154" s="8" t="s">
+      <c r="C154" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D154" s="8" t="s">
+      <c r="D154" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E154" s="8" t="s">
+      <c r="E154" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F154" s="8" t="s">
+      <c r="F154" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G154" s="8" t="s">
+      <c r="G154" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="H154" s="8"/>
-      <c r="I154" s="8"/>
-      <c r="J154" s="8" t="s">
+      <c r="H154" s="9"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="K154" s="8"/>
-      <c r="L154" s="9" t="s">
+      <c r="K154" s="9"/>
+      <c r="L154" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M154" s="5"/>
@@ -9396,27 +9402,27 @@
       <c r="A155" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="B155" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C155" s="8" t="s">
+      <c r="C155" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D155" s="8" t="s">
+      <c r="D155" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E155" s="8"/>
-      <c r="F155" s="8" t="s">
+      <c r="E155" s="9"/>
+      <c r="F155" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G155" s="8"/>
-      <c r="H155" s="8"/>
-      <c r="I155" s="8"/>
-      <c r="J155" s="8" t="s">
+      <c r="G155" s="9"/>
+      <c r="H155" s="9"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="K155" s="8"/>
-      <c r="L155" s="9" t="s">
+      <c r="K155" s="9"/>
+      <c r="L155" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M155" s="5"/>
@@ -9434,29 +9440,29 @@
       <c r="A156" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="B156" s="8" t="s">
+      <c r="B156" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C156" s="8" t="s">
+      <c r="C156" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D156" s="8" t="s">
+      <c r="D156" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E156" s="8" t="s">
+      <c r="E156" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F156" s="8" t="s">
+      <c r="F156" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G156" s="8"/>
-      <c r="H156" s="8"/>
-      <c r="I156" s="8"/>
-      <c r="J156" s="8" t="s">
+      <c r="G156" s="9"/>
+      <c r="H156" s="9"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="K156" s="8"/>
-      <c r="L156" s="9" t="s">
+      <c r="K156" s="9"/>
+      <c r="L156" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M156" s="5"/>
@@ -9474,33 +9480,33 @@
       <c r="A157" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C157" s="8" t="s">
+      <c r="C157" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D157" s="8" t="s">
+      <c r="D157" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E157" s="8" t="s">
+      <c r="E157" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F157" s="8" t="s">
+      <c r="F157" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G157" s="8"/>
-      <c r="H157" s="8"/>
-      <c r="I157" s="8" t="s">
+      <c r="G157" s="9"/>
+      <c r="H157" s="9"/>
+      <c r="I157" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="J157" s="8" t="s">
+      <c r="J157" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="K157" s="8" t="s">
+      <c r="K157" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="L157" s="9" t="s">
+      <c r="L157" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M157" s="5"/>
@@ -9518,33 +9524,33 @@
       <c r="A158" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="B158" s="8" t="s">
+      <c r="B158" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C158" s="8" t="s">
+      <c r="C158" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D158" s="8" t="s">
+      <c r="D158" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E158" s="8" t="s">
+      <c r="E158" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F158" s="8" t="s">
+      <c r="F158" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G158" s="8" t="s">
+      <c r="G158" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="H158" s="8"/>
-      <c r="I158" s="8" t="s">
+      <c r="H158" s="9"/>
+      <c r="I158" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="J158" s="8" t="s">
+      <c r="J158" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="K158" s="8"/>
-      <c r="L158" s="9" t="s">
+      <c r="K158" s="9"/>
+      <c r="L158" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M158" s="5"/>
@@ -9565,24 +9571,24 @@
       <c r="B159" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C159" s="8" t="s">
+      <c r="C159" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D159" s="8" t="s">
+      <c r="D159" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E159" s="8"/>
-      <c r="F159" s="8" t="s">
+      <c r="E159" s="9"/>
+      <c r="F159" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G159" s="8"/>
-      <c r="H159" s="8"/>
-      <c r="I159" s="8"/>
-      <c r="J159" s="8" t="s">
+      <c r="G159" s="9"/>
+      <c r="H159" s="9"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="K159" s="8"/>
-      <c r="L159" s="9" t="s">
+      <c r="K159" s="9"/>
+      <c r="L159" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M159" s="5"/>
@@ -9600,31 +9606,31 @@
       <c r="A160" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="B160" s="8" t="s">
+      <c r="B160" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C160" s="8" t="s">
+      <c r="C160" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D160" s="8" t="s">
+      <c r="D160" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E160" s="8" t="s">
+      <c r="E160" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F160" s="8" t="s">
+      <c r="F160" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G160" s="8" t="s">
+      <c r="G160" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H160" s="8"/>
-      <c r="I160" s="8"/>
-      <c r="J160" s="8" t="s">
+      <c r="H160" s="9"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="K160" s="8"/>
-      <c r="L160" s="9" t="s">
+      <c r="K160" s="9"/>
+      <c r="L160" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M160" s="5"/>
@@ -9642,31 +9648,31 @@
       <c r="A161" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="B161" s="8" t="s">
+      <c r="B161" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C161" s="8" t="s">
+      <c r="C161" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D161" s="8" t="s">
+      <c r="D161" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E161" s="8" t="s">
+      <c r="E161" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F161" s="8" t="s">
+      <c r="F161" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G161" s="8"/>
-      <c r="H161" s="8"/>
-      <c r="I161" s="8" t="s">
+      <c r="G161" s="9"/>
+      <c r="H161" s="9"/>
+      <c r="I161" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J161" s="8" t="s">
+      <c r="J161" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="K161" s="8"/>
-      <c r="L161" s="9" t="s">
+      <c r="K161" s="9"/>
+      <c r="L161" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M161" s="5"/>
@@ -9684,33 +9690,33 @@
       <c r="A162" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="B162" s="8" t="s">
+      <c r="B162" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C162" s="8" t="s">
+      <c r="C162" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D162" s="8" t="s">
+      <c r="D162" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E162" s="8" t="s">
+      <c r="E162" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F162" s="8" t="s">
+      <c r="F162" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G162" s="8" t="s">
+      <c r="G162" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="H162" s="8"/>
-      <c r="I162" s="8" t="s">
+      <c r="H162" s="9"/>
+      <c r="I162" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J162" s="8" t="s">
+      <c r="J162" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="K162" s="8"/>
-      <c r="L162" s="9" t="s">
+      <c r="K162" s="9"/>
+      <c r="L162" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M162" s="5"/>
@@ -9731,26 +9737,26 @@
       <c r="B163" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C163" s="8" t="s">
+      <c r="C163" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D163" s="8" t="s">
+      <c r="D163" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E163" s="8"/>
-      <c r="F163" s="8" t="s">
+      <c r="E163" s="9"/>
+      <c r="F163" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G163" s="8"/>
-      <c r="H163" s="8"/>
-      <c r="I163" s="8"/>
-      <c r="J163" s="8" t="s">
+      <c r="G163" s="9"/>
+      <c r="H163" s="9"/>
+      <c r="I163" s="9"/>
+      <c r="J163" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="K163" s="8" t="s">
+      <c r="K163" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="L163" s="9" t="s">
+      <c r="L163" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M163" s="5"/>
@@ -9768,29 +9774,29 @@
       <c r="A164" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B164" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C164" s="8" t="s">
+      <c r="C164" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D164" s="8" t="s">
+      <c r="D164" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E164" s="8" t="s">
+      <c r="E164" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F164" s="8" t="s">
+      <c r="F164" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G164" s="8"/>
-      <c r="H164" s="8"/>
-      <c r="I164" s="8"/>
-      <c r="J164" s="8" t="s">
+      <c r="G164" s="9"/>
+      <c r="H164" s="9"/>
+      <c r="I164" s="9"/>
+      <c r="J164" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="K164" s="8"/>
-      <c r="L164" s="9" t="s">
+      <c r="K164" s="9"/>
+      <c r="L164" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M164" s="5"/>
@@ -9808,31 +9814,31 @@
       <c r="A165" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="B165" s="8" t="s">
+      <c r="B165" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C165" s="8" t="s">
+      <c r="C165" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D165" s="8" t="s">
+      <c r="D165" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E165" s="8" t="s">
+      <c r="E165" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F165" s="8" t="s">
+      <c r="F165" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G165" s="8"/>
-      <c r="H165" s="8"/>
-      <c r="I165" s="8" t="s">
+      <c r="G165" s="9"/>
+      <c r="H165" s="9"/>
+      <c r="I165" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="J165" s="8" t="s">
+      <c r="J165" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="K165" s="8"/>
-      <c r="L165" s="9" t="s">
+      <c r="K165" s="9"/>
+      <c r="L165" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M165" s="5"/>
@@ -9850,33 +9856,33 @@
       <c r="A166" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="B166" s="8" t="s">
+      <c r="B166" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C166" s="8" t="s">
+      <c r="C166" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D166" s="8" t="s">
+      <c r="D166" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E166" s="8" t="s">
+      <c r="E166" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F166" s="8" t="s">
+      <c r="F166" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G166" s="8" t="s">
+      <c r="G166" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="H166" s="8"/>
-      <c r="I166" s="8" t="s">
+      <c r="H166" s="9"/>
+      <c r="I166" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="J166" s="8" t="s">
+      <c r="J166" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="K166" s="8"/>
-      <c r="L166" s="9" t="s">
+      <c r="K166" s="9"/>
+      <c r="L166" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M166" s="5"/>
@@ -9897,20 +9903,20 @@
       <c r="B167" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C167" s="8" t="s">
+      <c r="C167" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D167" s="8"/>
-      <c r="E167" s="8"/>
-      <c r="F167" s="8"/>
-      <c r="G167" s="8"/>
-      <c r="H167" s="8"/>
-      <c r="I167" s="8"/>
-      <c r="J167" s="8" t="s">
+      <c r="D167" s="9"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="9"/>
+      <c r="I167" s="9"/>
+      <c r="J167" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="K167" s="8"/>
-      <c r="L167" s="9" t="s">
+      <c r="K167" s="9"/>
+      <c r="L167" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M167" s="5"/>
@@ -9928,27 +9934,27 @@
       <c r="A168" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="B168" s="8" t="s">
+      <c r="B168" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C168" s="8" t="s">
+      <c r="C168" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D168" s="8" t="s">
+      <c r="D168" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E168" s="8"/>
-      <c r="F168" s="8" t="s">
+      <c r="E168" s="9"/>
+      <c r="F168" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G168" s="8"/>
-      <c r="H168" s="8"/>
-      <c r="I168" s="8"/>
-      <c r="J168" s="8" t="s">
+      <c r="G168" s="9"/>
+      <c r="H168" s="9"/>
+      <c r="I168" s="9"/>
+      <c r="J168" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="K168" s="8"/>
-      <c r="L168" s="9" t="s">
+      <c r="K168" s="9"/>
+      <c r="L168" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M168" s="5"/>
@@ -9966,33 +9972,33 @@
       <c r="A169" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="B169" s="8" t="s">
+      <c r="B169" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C169" s="8" t="s">
+      <c r="C169" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D169" s="8" t="s">
+      <c r="D169" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E169" s="8" t="s">
+      <c r="E169" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F169" s="8" t="s">
+      <c r="F169" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G169" s="8" t="s">
+      <c r="G169" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H169" s="8"/>
-      <c r="I169" s="8" t="s">
+      <c r="H169" s="9"/>
+      <c r="I169" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="J169" s="8" t="s">
+      <c r="J169" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="K169" s="8"/>
-      <c r="L169" s="9" t="s">
+      <c r="K169" s="9"/>
+      <c r="L169" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M169" s="5"/>
@@ -10010,33 +10016,33 @@
       <c r="A170" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="B170" s="8" t="s">
+      <c r="B170" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C170" s="8" t="s">
+      <c r="C170" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D170" s="8" t="s">
+      <c r="D170" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E170" s="8" t="s">
+      <c r="E170" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F170" s="8" t="s">
+      <c r="F170" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G170" s="8"/>
-      <c r="H170" s="8"/>
-      <c r="I170" s="8" t="s">
+      <c r="G170" s="9"/>
+      <c r="H170" s="9"/>
+      <c r="I170" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J170" s="8" t="s">
+      <c r="J170" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="K170" s="8" t="s">
+      <c r="K170" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="L170" s="9" t="s">
+      <c r="L170" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M170" s="5"/>
@@ -10051,32 +10057,32 @@
       <c r="V170" s="5"/>
     </row>
     <row r="171" spans="1:22">
-      <c r="A171" s="5" t="s">
+      <c r="A171" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="B171" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C171" s="5" t="s">
+      <c r="C171" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D171" s="6"/>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
-      <c r="H171" s="5"/>
+      <c r="H171" s="2"/>
       <c r="I171" s="6"/>
       <c r="J171" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="K171" s="5"/>
+      <c r="K171" s="2"/>
       <c r="L171" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="M171" s="5" t="s">
+      <c r="M171" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N171" s="5" t="s">
+      <c r="N171" s="2" t="s">
         <v>57</v>
       </c>
       <c r="O171" s="6" t="s">
@@ -10091,14 +10097,14 @@
       <c r="R171" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="S171" s="5"/>
+      <c r="S171" s="2"/>
       <c r="T171" s="6" t="s">
         <v>303</v>
       </c>
       <c r="U171" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="V171" s="5"/>
+      <c r="V171" s="2"/>
     </row>
     <row r="172" spans="1:22">
       <c r="A172" s="5" t="s">
@@ -10279,22 +10285,22 @@
       <c r="B175" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C175" s="8" t="s">
+      <c r="C175" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D175" s="8"/>
-      <c r="E175" s="8"/>
-      <c r="F175" s="8"/>
-      <c r="G175" s="8"/>
-      <c r="H175" s="8"/>
-      <c r="I175" s="8"/>
-      <c r="J175" s="8" t="s">
+      <c r="D175" s="9"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="9"/>
+      <c r="H175" s="9"/>
+      <c r="I175" s="9"/>
+      <c r="J175" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="K175" s="8" t="s">
+      <c r="K175" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="L175" s="9" t="s">
+      <c r="L175" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M175" s="5"/>
@@ -10312,27 +10318,27 @@
       <c r="A176" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="B176" s="8" t="s">
+      <c r="B176" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C176" s="8" t="s">
+      <c r="C176" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D176" s="8" t="s">
+      <c r="D176" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E176" s="8"/>
-      <c r="F176" s="8" t="s">
+      <c r="E176" s="9"/>
+      <c r="F176" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G176" s="8"/>
-      <c r="H176" s="8"/>
-      <c r="I176" s="8"/>
-      <c r="J176" s="8" t="s">
+      <c r="G176" s="9"/>
+      <c r="H176" s="9"/>
+      <c r="I176" s="9"/>
+      <c r="J176" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="K176" s="8"/>
-      <c r="L176" s="9" t="s">
+      <c r="K176" s="9"/>
+      <c r="L176" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M176" s="5"/>
@@ -10350,33 +10356,33 @@
       <c r="A177" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="B177" s="8" t="s">
+      <c r="B177" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C177" s="8" t="s">
+      <c r="C177" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D177" s="8" t="s">
+      <c r="D177" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E177" s="8" t="s">
+      <c r="E177" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F177" s="8" t="s">
+      <c r="F177" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G177" s="8"/>
-      <c r="H177" s="8"/>
-      <c r="I177" s="8" t="s">
+      <c r="G177" s="9"/>
+      <c r="H177" s="9"/>
+      <c r="I177" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="J177" s="8" t="s">
+      <c r="J177" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="K177" s="8" t="s">
+      <c r="K177" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="L177" s="9" t="s">
+      <c r="L177" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M177" s="5"/>
@@ -10394,31 +10400,31 @@
       <c r="A178" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="B178" s="8" t="s">
+      <c r="B178" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C178" s="8" t="s">
+      <c r="C178" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D178" s="8" t="s">
+      <c r="D178" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E178" s="8" t="s">
+      <c r="E178" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F178" s="8" t="s">
+      <c r="F178" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G178" s="8" t="s">
+      <c r="G178" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="H178" s="8"/>
-      <c r="I178" s="8"/>
-      <c r="J178" s="8" t="s">
+      <c r="H178" s="9"/>
+      <c r="I178" s="9"/>
+      <c r="J178" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="K178" s="8"/>
-      <c r="L178" s="9" t="s">
+      <c r="K178" s="9"/>
+      <c r="L178" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M178" s="5"/>
@@ -10436,27 +10442,27 @@
       <c r="A179" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="B179" s="8" t="s">
+      <c r="B179" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C179" s="8" t="s">
+      <c r="C179" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D179" s="8" t="s">
+      <c r="D179" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E179" s="8"/>
-      <c r="F179" s="8" t="s">
+      <c r="E179" s="9"/>
+      <c r="F179" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G179" s="8"/>
-      <c r="H179" s="8"/>
-      <c r="I179" s="8"/>
-      <c r="J179" s="8" t="s">
+      <c r="G179" s="9"/>
+      <c r="H179" s="9"/>
+      <c r="I179" s="9"/>
+      <c r="J179" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="K179" s="8"/>
-      <c r="L179" s="9" t="s">
+      <c r="K179" s="9"/>
+      <c r="L179" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M179" s="5"/>
@@ -10474,29 +10480,29 @@
       <c r="A180" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="B180" s="8" t="s">
+      <c r="B180" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C180" s="8" t="s">
+      <c r="C180" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D180" s="8" t="s">
+      <c r="D180" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E180" s="8" t="s">
+      <c r="E180" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F180" s="8" t="s">
+      <c r="F180" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G180" s="8"/>
-      <c r="H180" s="8"/>
-      <c r="I180" s="8"/>
-      <c r="J180" s="8" t="s">
+      <c r="G180" s="9"/>
+      <c r="H180" s="9"/>
+      <c r="I180" s="9"/>
+      <c r="J180" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="K180" s="8"/>
-      <c r="L180" s="9" t="s">
+      <c r="K180" s="9"/>
+      <c r="L180" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M180" s="5"/>
@@ -10514,33 +10520,33 @@
       <c r="A181" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="B181" s="8" t="s">
+      <c r="B181" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C181" s="8" t="s">
+      <c r="C181" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D181" s="8" t="s">
+      <c r="D181" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E181" s="8" t="s">
+      <c r="E181" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F181" s="8" t="s">
+      <c r="F181" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G181" s="8"/>
-      <c r="H181" s="8"/>
-      <c r="I181" s="8" t="s">
+      <c r="G181" s="9"/>
+      <c r="H181" s="9"/>
+      <c r="I181" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="J181" s="8" t="s">
+      <c r="J181" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="K181" s="8" t="s">
+      <c r="K181" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="L181" s="9" t="s">
+      <c r="L181" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M181" s="5"/>
@@ -10558,33 +10564,33 @@
       <c r="A182" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="B182" s="8" t="s">
+      <c r="B182" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C182" s="8" t="s">
+      <c r="C182" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D182" s="8" t="s">
+      <c r="D182" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E182" s="8" t="s">
+      <c r="E182" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F182" s="8" t="s">
+      <c r="F182" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G182" s="8" t="s">
+      <c r="G182" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="H182" s="8"/>
-      <c r="I182" s="8" t="s">
+      <c r="H182" s="9"/>
+      <c r="I182" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="J182" s="8" t="s">
+      <c r="J182" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="K182" s="8"/>
-      <c r="L182" s="9" t="s">
+      <c r="K182" s="9"/>
+      <c r="L182" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M182" s="5"/>
@@ -10605,24 +10611,24 @@
       <c r="B183" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C183" s="8" t="s">
+      <c r="C183" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D183" s="8" t="s">
+      <c r="D183" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E183" s="8"/>
-      <c r="F183" s="8" t="s">
+      <c r="E183" s="9"/>
+      <c r="F183" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="G183" s="8"/>
-      <c r="H183" s="8"/>
-      <c r="I183" s="8"/>
-      <c r="J183" s="8" t="s">
+      <c r="G183" s="9"/>
+      <c r="H183" s="9"/>
+      <c r="I183" s="9"/>
+      <c r="J183" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="K183" s="8"/>
-      <c r="L183" s="9" t="s">
+      <c r="K183" s="9"/>
+      <c r="L183" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M183" s="5"/>
@@ -10640,31 +10646,31 @@
       <c r="A184" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="B184" s="8" t="s">
+      <c r="B184" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C184" s="8" t="s">
+      <c r="C184" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D184" s="8" t="s">
+      <c r="D184" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E184" s="8" t="s">
+      <c r="E184" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F184" s="8" t="s">
+      <c r="F184" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="G184" s="8" t="s">
+      <c r="G184" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H184" s="8"/>
-      <c r="I184" s="8"/>
-      <c r="J184" s="8" t="s">
+      <c r="H184" s="9"/>
+      <c r="I184" s="9"/>
+      <c r="J184" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="K184" s="8"/>
-      <c r="L184" s="9" t="s">
+      <c r="K184" s="9"/>
+      <c r="L184" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M184" s="5"/>
@@ -10682,31 +10688,31 @@
       <c r="A185" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="B185" s="8" t="s">
+      <c r="B185" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C185" s="8" t="s">
+      <c r="C185" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D185" s="8" t="s">
+      <c r="D185" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E185" s="8" t="s">
+      <c r="E185" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F185" s="8" t="s">
+      <c r="F185" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="G185" s="8"/>
-      <c r="H185" s="8"/>
-      <c r="I185" s="8" t="s">
+      <c r="G185" s="9"/>
+      <c r="H185" s="9"/>
+      <c r="I185" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J185" s="8" t="s">
+      <c r="J185" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="K185" s="8"/>
-      <c r="L185" s="9" t="s">
+      <c r="K185" s="9"/>
+      <c r="L185" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M185" s="5"/>
@@ -10724,33 +10730,33 @@
       <c r="A186" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="B186" s="8" t="s">
+      <c r="B186" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C186" s="8" t="s">
+      <c r="C186" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D186" s="8" t="s">
+      <c r="D186" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E186" s="8" t="s">
+      <c r="E186" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F186" s="8" t="s">
+      <c r="F186" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="G186" s="8" t="s">
+      <c r="G186" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="H186" s="8"/>
-      <c r="I186" s="8" t="s">
+      <c r="H186" s="9"/>
+      <c r="I186" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J186" s="8" t="s">
+      <c r="J186" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="K186" s="8"/>
-      <c r="L186" s="9" t="s">
+      <c r="K186" s="9"/>
+      <c r="L186" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M186" s="5"/>
@@ -10771,26 +10777,26 @@
       <c r="B187" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C187" s="8" t="s">
+      <c r="C187" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D187" s="8" t="s">
+      <c r="D187" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E187" s="8"/>
-      <c r="F187" s="8" t="s">
+      <c r="E187" s="9"/>
+      <c r="F187" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="G187" s="8"/>
-      <c r="H187" s="8"/>
-      <c r="I187" s="8"/>
-      <c r="J187" s="8" t="s">
+      <c r="G187" s="9"/>
+      <c r="H187" s="9"/>
+      <c r="I187" s="9"/>
+      <c r="J187" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="K187" s="8" t="s">
+      <c r="K187" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="L187" s="9" t="s">
+      <c r="L187" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M187" s="5"/>
@@ -10808,29 +10814,29 @@
       <c r="A188" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="B188" s="8" t="s">
+      <c r="B188" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C188" s="8" t="s">
+      <c r="C188" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D188" s="8" t="s">
+      <c r="D188" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E188" s="8" t="s">
+      <c r="E188" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F188" s="8" t="s">
+      <c r="F188" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="G188" s="8"/>
-      <c r="H188" s="8"/>
-      <c r="I188" s="8"/>
-      <c r="J188" s="8" t="s">
+      <c r="G188" s="9"/>
+      <c r="H188" s="9"/>
+      <c r="I188" s="9"/>
+      <c r="J188" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="K188" s="8"/>
-      <c r="L188" s="9" t="s">
+      <c r="K188" s="9"/>
+      <c r="L188" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M188" s="5"/>
@@ -10848,31 +10854,31 @@
       <c r="A189" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="B189" s="8" t="s">
+      <c r="B189" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C189" s="8" t="s">
+      <c r="C189" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D189" s="8" t="s">
+      <c r="D189" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E189" s="8" t="s">
+      <c r="E189" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F189" s="8" t="s">
+      <c r="F189" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="G189" s="8"/>
-      <c r="H189" s="8"/>
-      <c r="I189" s="8" t="s">
+      <c r="G189" s="9"/>
+      <c r="H189" s="9"/>
+      <c r="I189" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="J189" s="8" t="s">
+      <c r="J189" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="K189" s="8"/>
-      <c r="L189" s="9" t="s">
+      <c r="K189" s="9"/>
+      <c r="L189" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M189" s="5"/>
@@ -10890,33 +10896,33 @@
       <c r="A190" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="B190" s="8" t="s">
+      <c r="B190" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C190" s="8" t="s">
+      <c r="C190" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D190" s="8" t="s">
+      <c r="D190" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E190" s="8" t="s">
+      <c r="E190" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F190" s="8" t="s">
+      <c r="F190" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="G190" s="8" t="s">
+      <c r="G190" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="H190" s="8"/>
-      <c r="I190" s="8" t="s">
+      <c r="H190" s="9"/>
+      <c r="I190" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="J190" s="8" t="s">
+      <c r="J190" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="K190" s="8"/>
-      <c r="L190" s="9" t="s">
+      <c r="K190" s="9"/>
+      <c r="L190" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M190" s="5"/>
@@ -10937,20 +10943,20 @@
       <c r="B191" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C191" s="8" t="s">
+      <c r="C191" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D191" s="8"/>
-      <c r="E191" s="8"/>
-      <c r="F191" s="8"/>
-      <c r="G191" s="8"/>
-      <c r="H191" s="8"/>
-      <c r="I191" s="8"/>
-      <c r="J191" s="8" t="s">
+      <c r="D191" s="9"/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="9"/>
+      <c r="G191" s="9"/>
+      <c r="H191" s="9"/>
+      <c r="I191" s="9"/>
+      <c r="J191" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="K191" s="8"/>
-      <c r="L191" s="9" t="s">
+      <c r="K191" s="9"/>
+      <c r="L191" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M191" s="5"/>
@@ -10968,27 +10974,27 @@
       <c r="A192" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="B192" s="8" t="s">
+      <c r="B192" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C192" s="8" t="s">
+      <c r="C192" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D192" s="8" t="s">
+      <c r="D192" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E192" s="8"/>
-      <c r="F192" s="8" t="s">
+      <c r="E192" s="9"/>
+      <c r="F192" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="G192" s="8"/>
-      <c r="H192" s="8"/>
-      <c r="I192" s="8"/>
-      <c r="J192" s="8" t="s">
+      <c r="G192" s="9"/>
+      <c r="H192" s="9"/>
+      <c r="I192" s="9"/>
+      <c r="J192" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="K192" s="8"/>
-      <c r="L192" s="9" t="s">
+      <c r="K192" s="9"/>
+      <c r="L192" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M192" s="5"/>
@@ -11006,33 +11012,33 @@
       <c r="A193" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="B193" s="8" t="s">
+      <c r="B193" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C193" s="8" t="s">
+      <c r="C193" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D193" s="8" t="s">
+      <c r="D193" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E193" s="8" t="s">
+      <c r="E193" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F193" s="8" t="s">
+      <c r="F193" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="G193" s="8" t="s">
+      <c r="G193" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H193" s="8"/>
-      <c r="I193" s="8" t="s">
+      <c r="H193" s="9"/>
+      <c r="I193" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="J193" s="8" t="s">
+      <c r="J193" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="K193" s="8"/>
-      <c r="L193" s="9" t="s">
+      <c r="K193" s="9"/>
+      <c r="L193" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M193" s="5"/>
@@ -11050,33 +11056,33 @@
       <c r="A194" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="B194" s="8" t="s">
+      <c r="B194" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C194" s="8" t="s">
+      <c r="C194" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D194" s="8" t="s">
+      <c r="D194" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E194" s="8" t="s">
+      <c r="E194" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F194" s="8" t="s">
+      <c r="F194" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="G194" s="8"/>
-      <c r="H194" s="8"/>
-      <c r="I194" s="8" t="s">
+      <c r="G194" s="9"/>
+      <c r="H194" s="9"/>
+      <c r="I194" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J194" s="8" t="s">
+      <c r="J194" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="K194" s="8" t="s">
+      <c r="K194" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="L194" s="9" t="s">
+      <c r="L194" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M194" s="5"/>
@@ -11091,32 +11097,32 @@
       <c r="V194" s="5"/>
     </row>
     <row r="195" spans="1:22">
-      <c r="A195" s="5" t="s">
+      <c r="A195" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B195" s="5" t="s">
+      <c r="B195" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C195" s="5" t="s">
+      <c r="C195" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D195" s="6"/>
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
-      <c r="H195" s="5"/>
+      <c r="H195" s="2"/>
       <c r="I195" s="6"/>
       <c r="J195" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="K195" s="5"/>
+      <c r="K195" s="2"/>
       <c r="L195" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="M195" s="5" t="s">
+      <c r="M195" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N195" s="5" t="s">
+      <c r="N195" s="2" t="s">
         <v>57</v>
       </c>
       <c r="O195" s="6" t="s">
@@ -11131,14 +11137,14 @@
       <c r="R195" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="S195" s="5"/>
+      <c r="S195" s="2"/>
       <c r="T195" s="6" t="s">
         <v>307</v>
       </c>
       <c r="U195" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="V195" s="5"/>
+      <c r="V195" s="2"/>
     </row>
     <row r="196" spans="1:22">
       <c r="A196" s="5" t="s">
@@ -11198,33 +11204,33 @@
       <c r="A197" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="B197" s="8" t="s">
+      <c r="B197" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C197" s="8" t="s">
+      <c r="C197" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D197" s="8" t="s">
+      <c r="D197" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E197" s="8" t="s">
+      <c r="E197" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F197" s="8" t="s">
+      <c r="F197" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G197" s="8" t="s">
+      <c r="G197" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="H197" s="8"/>
-      <c r="I197" s="8" t="s">
+      <c r="H197" s="9"/>
+      <c r="I197" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="J197" s="8" t="s">
+      <c r="J197" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="K197" s="8"/>
-      <c r="L197" s="9" t="s">
+      <c r="K197" s="9"/>
+      <c r="L197" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M197" s="5"/>
@@ -11242,33 +11248,33 @@
       <c r="A198" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="B198" s="8" t="s">
+      <c r="B198" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C198" s="8" t="s">
+      <c r="C198" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D198" s="8" t="s">
+      <c r="D198" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E198" s="8" t="s">
+      <c r="E198" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F198" s="8" t="s">
+      <c r="F198" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G198" s="8"/>
-      <c r="H198" s="8"/>
-      <c r="I198" s="8" t="s">
+      <c r="G198" s="9"/>
+      <c r="H198" s="9"/>
+      <c r="I198" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="J198" s="8" t="s">
+      <c r="J198" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="K198" s="8" t="s">
+      <c r="K198" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="L198" s="9" t="s">
+      <c r="L198" s="10" t="s">
         <v>286</v>
       </c>
       <c r="M198" s="5"/>
@@ -11283,48 +11289,48 @@
       <c r="V198" s="5"/>
     </row>
     <row r="199" spans="1:22">
-      <c r="A199" s="5" t="s">
+      <c r="A199" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="B199" s="5" t="s">
+      <c r="B199" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C199" s="5"/>
-      <c r="D199" s="5" t="s">
+      <c r="C199" s="2"/>
+      <c r="D199" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E199" s="5"/>
+      <c r="E199" s="2"/>
       <c r="F199" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G199" s="5"/>
-      <c r="H199" s="5"/>
-      <c r="I199" s="5"/>
-      <c r="J199" s="5" t="s">
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="2"/>
+      <c r="J199" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="K199" s="5"/>
+      <c r="K199" s="2"/>
       <c r="L199" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="M199" s="5" t="s">
+      <c r="M199" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N199" s="5"/>
-      <c r="O199" s="5" t="s">
+      <c r="N199" s="2"/>
+      <c r="O199" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P199" s="5"/>
+      <c r="P199" s="2"/>
       <c r="Q199" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="R199" s="5"/>
-      <c r="S199" s="5"/>
-      <c r="T199" s="5"/>
-      <c r="U199" s="5" t="s">
+      <c r="R199" s="2"/>
+      <c r="S199" s="2"/>
+      <c r="T199" s="2"/>
+      <c r="U199" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="V199" s="5"/>
+      <c r="V199" s="2"/>
     </row>
     <row r="200" spans="1:22">
       <c r="A200" s="5" t="s">
@@ -11379,48 +11385,48 @@
       <c r="V200" s="5"/>
     </row>
     <row r="201" spans="1:22">
-      <c r="A201" s="5" t="s">
+      <c r="A201" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="B201" s="5" t="s">
+      <c r="B201" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C201" s="5"/>
-      <c r="D201" s="5" t="s">
+      <c r="C201" s="2"/>
+      <c r="D201" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E201" s="5"/>
+      <c r="E201" s="2"/>
       <c r="F201" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G201" s="5"/>
-      <c r="H201" s="5"/>
-      <c r="I201" s="5"/>
-      <c r="J201" s="5" t="s">
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+      <c r="I201" s="2"/>
+      <c r="J201" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="K201" s="5"/>
+      <c r="K201" s="2"/>
       <c r="L201" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="M201" s="5" t="s">
+      <c r="M201" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N201" s="5"/>
-      <c r="O201" s="5" t="s">
+      <c r="N201" s="2"/>
+      <c r="O201" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P201" s="5"/>
+      <c r="P201" s="2"/>
       <c r="Q201" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="R201" s="5"/>
-      <c r="S201" s="5"/>
-      <c r="T201" s="5"/>
-      <c r="U201" s="5" t="s">
+      <c r="R201" s="2"/>
+      <c r="S201" s="2"/>
+      <c r="T201" s="2"/>
+      <c r="U201" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="V201" s="5"/>
+      <c r="V201" s="2"/>
     </row>
     <row r="202" spans="1:22">
       <c r="A202" s="5" t="s">
